--- a/EBC League 2022.xlsx
+++ b/EBC League 2022.xlsx
@@ -10,14 +10,16 @@
     <sheet name="Schedule Grid" sheetId="1" r:id="rId1"/>
     <sheet name="Wins Against Schedule" sheetId="2" r:id="rId2"/>
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
-    <sheet name="Louie Power Index" sheetId="4" r:id="rId4"/>
+    <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
+    <sheet name="Louie Power Index" sheetId="5" r:id="rId5"/>
+    <sheet name="LPI By Week" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="59">
   <si>
     <t>The Hungry Dogs</t>
   </si>
@@ -43,57 +45,87 @@
     <t xml:space="preserve">Champagne  Papi </t>
   </si>
   <si>
+    <t>9-5-0</t>
+  </si>
+  <si>
+    <t>5-9-0</t>
+  </si>
+  <si>
+    <t>8-6-0</t>
+  </si>
+  <si>
+    <t>7-7-0</t>
+  </si>
+  <si>
+    <t>6-8-0</t>
+  </si>
+  <si>
+    <t>2-12-0</t>
+  </si>
+  <si>
+    <t>12-2-0</t>
+  </si>
+  <si>
+    <t>1-13-0</t>
+  </si>
+  <si>
+    <t>4-10-0</t>
+  </si>
+  <si>
+    <t>10-4-0</t>
+  </si>
+  <si>
+    <t>11-3-0</t>
+  </si>
+  <si>
+    <t>3-11-0</t>
+  </si>
+  <si>
     <t>Teams</t>
   </si>
   <si>
-    <t>9 - 5 - 0</t>
-  </si>
-  <si>
-    <t>5 - 9 - 0</t>
-  </si>
-  <si>
-    <t>8 - 6 - 0</t>
-  </si>
-  <si>
-    <t>7 - 7 - 0</t>
-  </si>
-  <si>
-    <t>6 - 8 - 0</t>
-  </si>
-  <si>
-    <t>2 - 12 - 0</t>
-  </si>
-  <si>
-    <t>12 - 2 - 0</t>
-  </si>
-  <si>
-    <t>1 - 13 - 0</t>
-  </si>
-  <si>
-    <t>4 - 10 - 0</t>
-  </si>
-  <si>
-    <t>10 - 4 - 0</t>
-  </si>
-  <si>
-    <t>11 - 3 - 0</t>
-  </si>
-  <si>
-    <t>3 - 11 - 0</t>
-  </si>
-  <si>
-    <t>Avg Wins Against Schedule</t>
+    <t>Wins Against Schedule</t>
   </si>
   <si>
     <t>Record</t>
   </si>
   <si>
+    <t>Team</t>
+  </si>
+  <si>
     <t>Expected Wins</t>
   </si>
   <si>
     <t>Difference</t>
   </si>
   <si>
+    <t>Place 1</t>
+  </si>
+  <si>
+    <t>Place 2</t>
+  </si>
+  <si>
+    <t>Place 3</t>
+  </si>
+  <si>
+    <t>Place 4</t>
+  </si>
+  <si>
+    <t>Place 5</t>
+  </si>
+  <si>
+    <t>Place 6</t>
+  </si>
+  <si>
+    <t>Place 7</t>
+  </si>
+  <si>
+    <t>Place 8</t>
+  </si>
+  <si>
+    <t>Chance of making playoffs</t>
+  </si>
+  <si>
     <t>Louie Power Index (LPI)</t>
   </si>
   <si>
@@ -106,19 +138,64 @@
     <t>↑2</t>
   </si>
   <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓5</t>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓8</t>
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
   </si>
 </sst>
 </file>
@@ -483,9 +560,6 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,28 +590,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -545,28 +619,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -574,28 +648,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -603,28 +677,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -632,28 +706,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -661,28 +735,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -690,28 +764,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
         <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -719,28 +793,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -758,7 +832,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
@@ -769,7 +843,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -778,12 +852,12 @@
         <v>6.125</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -792,12 +866,12 @@
         <v>6.375</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -806,12 +880,12 @@
         <v>6.75</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -820,12 +894,12 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -834,12 +908,12 @@
         <v>7.125</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -848,12 +922,12 @@
         <v>7.5</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -862,12 +936,12 @@
         <v>7.5</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -876,7 +950,7 @@
         <v>7.625</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -894,13 +968,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>22</v>
@@ -908,7 +982,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -920,12 +994,12 @@
         <v>-1.375</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -937,12 +1011,12 @@
         <v>0.875</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -954,46 +1028,46 @@
         <v>-0.875</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>7.375</v>
       </c>
       <c r="D5">
-        <v>1.375</v>
+        <v>-1.625</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>7.375</v>
       </c>
       <c r="D6">
-        <v>-1.625</v>
+        <v>1.375</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -1005,12 +1079,12 @@
         <v>1.625</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -1022,12 +1096,12 @@
         <v>-0.5</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -1039,7 +1113,7 @@
         <v>0.5</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1048,6 +1122,307 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>42.29</v>
+      </c>
+      <c r="C2">
+        <v>32.25</v>
+      </c>
+      <c r="D2">
+        <v>15.49</v>
+      </c>
+      <c r="E2">
+        <v>6.859999999999999</v>
+      </c>
+      <c r="F2">
+        <v>2.43</v>
+      </c>
+      <c r="G2">
+        <v>0.59</v>
+      </c>
+      <c r="H2">
+        <v>0.09</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>99.91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>37.88</v>
+      </c>
+      <c r="C3">
+        <v>29.17</v>
+      </c>
+      <c r="D3">
+        <v>17.63</v>
+      </c>
+      <c r="E3">
+        <v>9.67</v>
+      </c>
+      <c r="F3">
+        <v>4.25</v>
+      </c>
+      <c r="G3">
+        <v>1.27</v>
+      </c>
+      <c r="H3">
+        <v>0.13</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>99.87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>10.75</v>
+      </c>
+      <c r="C4">
+        <v>17.19</v>
+      </c>
+      <c r="D4">
+        <v>22.8</v>
+      </c>
+      <c r="E4">
+        <v>21.78</v>
+      </c>
+      <c r="F4">
+        <v>16.49</v>
+      </c>
+      <c r="G4">
+        <v>8.58</v>
+      </c>
+      <c r="H4">
+        <v>2.4</v>
+      </c>
+      <c r="I4">
+        <v>0.01</v>
+      </c>
+      <c r="J4">
+        <v>97.59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>5.55</v>
+      </c>
+      <c r="C5">
+        <v>11.43</v>
+      </c>
+      <c r="D5">
+        <v>19.57</v>
+      </c>
+      <c r="E5">
+        <v>22.07</v>
+      </c>
+      <c r="F5">
+        <v>20.63</v>
+      </c>
+      <c r="G5">
+        <v>15.03</v>
+      </c>
+      <c r="H5">
+        <v>5.71</v>
+      </c>
+      <c r="I5">
+        <v>0.01</v>
+      </c>
+      <c r="J5">
+        <v>94.28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>2.83</v>
+      </c>
+      <c r="C6">
+        <v>6.83</v>
+      </c>
+      <c r="D6">
+        <v>15.28</v>
+      </c>
+      <c r="E6">
+        <v>21</v>
+      </c>
+      <c r="F6">
+        <v>23.5</v>
+      </c>
+      <c r="G6">
+        <v>19.96</v>
+      </c>
+      <c r="H6">
+        <v>10.49</v>
+      </c>
+      <c r="I6">
+        <v>0.11</v>
+      </c>
+      <c r="J6">
+        <v>89.40000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>0.67</v>
+      </c>
+      <c r="C7">
+        <v>2.93</v>
+      </c>
+      <c r="D7">
+        <v>7.779999999999999</v>
+      </c>
+      <c r="E7">
+        <v>14.23</v>
+      </c>
+      <c r="F7">
+        <v>22.19</v>
+      </c>
+      <c r="G7">
+        <v>29.6</v>
+      </c>
+      <c r="H7">
+        <v>22.08</v>
+      </c>
+      <c r="I7">
+        <v>0.52</v>
+      </c>
+      <c r="J7">
+        <v>77.39999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>0.03</v>
+      </c>
+      <c r="C8">
+        <v>0.2</v>
+      </c>
+      <c r="D8">
+        <v>1.45</v>
+      </c>
+      <c r="E8">
+        <v>4.390000000000001</v>
+      </c>
+      <c r="F8">
+        <v>10.5</v>
+      </c>
+      <c r="G8">
+        <v>24.84</v>
+      </c>
+      <c r="H8">
+        <v>55.67999999999999</v>
+      </c>
+      <c r="I8">
+        <v>2.91</v>
+      </c>
+      <c r="J8">
+        <v>41.41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.01</v>
+      </c>
+      <c r="G9">
+        <v>0.13</v>
+      </c>
+      <c r="H9">
+        <v>3.42</v>
+      </c>
+      <c r="I9">
+        <v>96.44</v>
+      </c>
+      <c r="J9">
+        <v>0.14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -1057,152 +1432,612 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
       <c r="C5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8">
-        <v>-16</v>
+        <v>-24</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>-41</v>
+        <v>-62</v>
       </c>
       <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
         <v>14</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F2">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>24</v>
+      </c>
+      <c r="H2">
+        <v>24</v>
+      </c>
+      <c r="I2">
+        <v>24</v>
+      </c>
+      <c r="J2">
+        <v>24</v>
+      </c>
+      <c r="K2">
+        <v>24</v>
+      </c>
+      <c r="L2">
         <v>33</v>
+      </c>
+      <c r="M2">
+        <v>36</v>
+      </c>
+      <c r="N2">
+        <v>45</v>
+      </c>
+      <c r="O2">
+        <v>46</v>
+      </c>
+      <c r="P2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>-3</v>
+      </c>
+      <c r="D3">
+        <v>-4</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>18</v>
+      </c>
+      <c r="L3">
+        <v>24</v>
+      </c>
+      <c r="M3">
+        <v>21</v>
+      </c>
+      <c r="N3">
+        <v>20</v>
+      </c>
+      <c r="O3">
+        <v>22</v>
+      </c>
+      <c r="P3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>-4</v>
+      </c>
+      <c r="C4">
+        <v>-3</v>
+      </c>
+      <c r="D4">
+        <v>-2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>9</v>
+      </c>
+      <c r="J4">
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <v>15</v>
+      </c>
+      <c r="L4">
+        <v>9</v>
+      </c>
+      <c r="M4">
+        <v>15</v>
+      </c>
+      <c r="N4">
+        <v>16</v>
+      </c>
+      <c r="O4">
+        <v>12</v>
+      </c>
+      <c r="P4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>-8</v>
+      </c>
+      <c r="C5">
+        <v>-15</v>
+      </c>
+      <c r="D5">
+        <v>-10</v>
+      </c>
+      <c r="E5">
+        <v>-14</v>
+      </c>
+      <c r="F5">
+        <v>-18</v>
+      </c>
+      <c r="G5">
+        <v>-14</v>
+      </c>
+      <c r="H5">
+        <v>-4</v>
+      </c>
+      <c r="I5">
+        <v>-3</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>-2</v>
+      </c>
+      <c r="L5">
+        <v>-4</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>6</v>
+      </c>
+      <c r="O5">
+        <v>12</v>
+      </c>
+      <c r="P5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>-2</v>
+      </c>
+      <c r="I6">
+        <v>-3</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>8</v>
+      </c>
+      <c r="M6">
+        <v>6</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>-2</v>
+      </c>
+      <c r="P6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>-9</v>
+      </c>
+      <c r="F7">
+        <v>-8</v>
+      </c>
+      <c r="G7">
+        <v>-6</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>-4</v>
+      </c>
+      <c r="L7">
+        <v>-2</v>
+      </c>
+      <c r="M7">
+        <v>-8</v>
+      </c>
+      <c r="N7">
+        <v>-9</v>
+      </c>
+      <c r="O7">
+        <v>-6</v>
+      </c>
+      <c r="P7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>12</v>
+      </c>
+      <c r="H8">
+        <v>9</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>-8</v>
+      </c>
+      <c r="L8">
+        <v>-14</v>
+      </c>
+      <c r="M8">
+        <v>-18</v>
+      </c>
+      <c r="N8">
+        <v>-16</v>
+      </c>
+      <c r="O8">
+        <v>-24</v>
+      </c>
+      <c r="P8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>-3</v>
+      </c>
+      <c r="C9">
+        <v>-4</v>
+      </c>
+      <c r="D9">
+        <v>-14</v>
+      </c>
+      <c r="E9">
+        <v>-9</v>
+      </c>
+      <c r="F9">
+        <v>-16</v>
+      </c>
+      <c r="G9">
+        <v>-27</v>
+      </c>
+      <c r="H9">
+        <v>-33</v>
+      </c>
+      <c r="I9">
+        <v>-36</v>
+      </c>
+      <c r="J9">
+        <v>-42</v>
+      </c>
+      <c r="K9">
+        <v>-45</v>
+      </c>
+      <c r="L9">
+        <v>-54</v>
+      </c>
+      <c r="M9">
+        <v>-52</v>
+      </c>
+      <c r="N9">
+        <v>-62</v>
+      </c>
+      <c r="O9">
+        <v>-62</v>
+      </c>
+      <c r="P9" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/EBC League 2022.xlsx
+++ b/EBC League 2022.xlsx
@@ -13,13 +13,14 @@
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
     <sheet name="Louie Power Index" sheetId="5" r:id="rId5"/>
     <sheet name="LPI By Week" sheetId="6" r:id="rId6"/>
+    <sheet name="Biggest Upsets" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="75">
   <si>
     <t>The Hungry Dogs</t>
   </si>
@@ -126,12 +127,39 @@
     <t>Chance of making playoffs</t>
   </si>
   <si>
+    <t>Owner</t>
+  </si>
+  <si>
     <t>Louie Power Index (LPI)</t>
   </si>
   <si>
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Gianpierre Lopez</t>
+  </si>
+  <si>
+    <t>James Breen</t>
+  </si>
+  <si>
+    <t>Louis Rodriguez</t>
+  </si>
+  <si>
+    <t>jack meehan</t>
+  </si>
+  <si>
+    <t>Jackson Jansorn</t>
+  </si>
+  <si>
+    <t>Derek Alcavage</t>
+  </si>
+  <si>
+    <t>gianni alessio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mike Zacierka </t>
+  </si>
+  <si>
     <t>↑1</t>
   </si>
   <si>
@@ -196,6 +224,27 @@
   </si>
   <si>
     <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Home Team</t>
+  </si>
+  <si>
+    <t>Away Team</t>
+  </si>
+  <si>
+    <t>Home LPI</t>
+  </si>
+  <si>
+    <t>Away LPI</t>
+  </si>
+  <si>
+    <t>LPI Difference</t>
+  </si>
+  <si>
+    <t>Winner</t>
   </si>
 </sst>
 </file>
@@ -1166,31 +1215,31 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>42.29</v>
+        <v>42.44</v>
       </c>
       <c r="C2">
-        <v>32.25</v>
+        <v>32.07</v>
       </c>
       <c r="D2">
-        <v>15.49</v>
+        <v>15.74</v>
       </c>
       <c r="E2">
-        <v>6.859999999999999</v>
+        <v>6.510000000000001</v>
       </c>
       <c r="F2">
-        <v>2.43</v>
+        <v>2.56</v>
       </c>
       <c r="G2">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="H2">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>99.91</v>
+        <v>99.92</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1198,31 +1247,31 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>37.88</v>
+        <v>38.23</v>
       </c>
       <c r="C3">
-        <v>29.17</v>
+        <v>28.31</v>
       </c>
       <c r="D3">
-        <v>17.63</v>
+        <v>17.85</v>
       </c>
       <c r="E3">
-        <v>9.67</v>
+        <v>9.700000000000001</v>
       </c>
       <c r="F3">
-        <v>4.25</v>
+        <v>4.29</v>
       </c>
       <c r="G3">
-        <v>1.27</v>
+        <v>1.46</v>
       </c>
       <c r="H3">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>99.87</v>
+        <v>99.83999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1230,31 +1279,31 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>10.75</v>
+        <v>10.38</v>
       </c>
       <c r="C4">
-        <v>17.19</v>
+        <v>17.39</v>
       </c>
       <c r="D4">
-        <v>22.8</v>
+        <v>23.31</v>
       </c>
       <c r="E4">
-        <v>21.78</v>
+        <v>21.56</v>
       </c>
       <c r="F4">
-        <v>16.49</v>
+        <v>15.8</v>
       </c>
       <c r="G4">
-        <v>8.58</v>
+        <v>9.08</v>
       </c>
       <c r="H4">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="I4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>97.59</v>
+        <v>97.52</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1262,31 +1311,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.55</v>
+        <v>5.66</v>
       </c>
       <c r="C5">
-        <v>11.43</v>
+        <v>11.72</v>
       </c>
       <c r="D5">
-        <v>19.57</v>
+        <v>19.46</v>
       </c>
       <c r="E5">
-        <v>22.07</v>
+        <v>22.57</v>
       </c>
       <c r="F5">
-        <v>20.63</v>
+        <v>20.36</v>
       </c>
       <c r="G5">
-        <v>15.03</v>
+        <v>14.59</v>
       </c>
       <c r="H5">
-        <v>5.71</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="I5">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="J5">
-        <v>94.28</v>
+        <v>94.36000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1294,31 +1343,31 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>2.83</v>
+        <v>2.5</v>
       </c>
       <c r="C6">
-        <v>6.83</v>
+        <v>7.35</v>
       </c>
       <c r="D6">
-        <v>15.28</v>
+        <v>14.36</v>
       </c>
       <c r="E6">
-        <v>21</v>
+        <v>21.17</v>
       </c>
       <c r="F6">
-        <v>23.5</v>
+        <v>23.03</v>
       </c>
       <c r="G6">
-        <v>19.96</v>
+        <v>20.62</v>
       </c>
       <c r="H6">
-        <v>10.49</v>
+        <v>10.83</v>
       </c>
       <c r="I6">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="J6">
-        <v>89.40000000000001</v>
+        <v>89.03</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1326,31 +1375,31 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="C7">
-        <v>2.93</v>
+        <v>2.99</v>
       </c>
       <c r="D7">
-        <v>7.779999999999999</v>
+        <v>7.77</v>
       </c>
       <c r="E7">
-        <v>14.23</v>
+        <v>14.21</v>
       </c>
       <c r="F7">
-        <v>22.19</v>
+        <v>23.35</v>
       </c>
       <c r="G7">
-        <v>29.6</v>
+        <v>28.72</v>
       </c>
       <c r="H7">
-        <v>22.08</v>
+        <v>21.91</v>
       </c>
       <c r="I7">
-        <v>0.52</v>
+        <v>0.3</v>
       </c>
       <c r="J7">
-        <v>77.39999999999999</v>
+        <v>77.79000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1358,31 +1407,31 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="C8">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="D8">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="E8">
-        <v>4.390000000000001</v>
+        <v>4.279999999999999</v>
       </c>
       <c r="F8">
-        <v>10.5</v>
+        <v>10.61</v>
       </c>
       <c r="G8">
-        <v>24.84</v>
+        <v>24.85</v>
       </c>
       <c r="H8">
-        <v>55.67999999999999</v>
+        <v>55.43</v>
       </c>
       <c r="I8">
-        <v>2.91</v>
+        <v>3.11</v>
       </c>
       <c r="J8">
-        <v>41.41</v>
+        <v>41.46</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1402,19 +1451,19 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="H9">
-        <v>3.42</v>
+        <v>3.51</v>
       </c>
       <c r="I9">
-        <v>96.44</v>
+        <v>96.41</v>
       </c>
       <c r="J9">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>
@@ -1424,13 +1473,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1438,146 +1487,173 @@
         <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2">
         <v>46</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
       <c r="E4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6">
         <v>-2</v>
       </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
       <c r="E6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7">
         <v>-6</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8">
         <v>-24</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9">
         <v>-62</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" t="s">
-        <v>44</v>
+      <c r="F9" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1595,49 +1671,49 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -1687,7 +1763,7 @@
         <v>46</v>
       </c>
       <c r="P2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1737,7 +1813,7 @@
         <v>22</v>
       </c>
       <c r="P3" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1787,7 +1863,7 @@
         <v>12</v>
       </c>
       <c r="P4" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1837,7 +1913,7 @@
         <v>12</v>
       </c>
       <c r="P5" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1887,7 +1963,7 @@
         <v>-2</v>
       </c>
       <c r="P6" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1937,7 +2013,7 @@
         <v>-6</v>
       </c>
       <c r="P7" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1987,7 +2063,7 @@
         <v>-24</v>
       </c>
       <c r="P8" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2037,7 +2113,173 @@
         <v>-62</v>
       </c>
       <c r="P9" t="s">
-        <v>44</v>
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>-36</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>-16</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>24</v>
+      </c>
+      <c r="G4">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>36</v>
+      </c>
+      <c r="G5">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>-15</v>
+      </c>
+      <c r="F6">
+        <v>-3</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/EBC League 2022.xlsx
+++ b/EBC League 2022.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="83">
   <si>
     <t>The Hungry Dogs</t>
   </si>
@@ -46,40 +46,55 @@
     <t xml:space="preserve">Champagne  Papi </t>
   </si>
   <si>
-    <t>9-5-0</t>
-  </si>
-  <si>
-    <t>5-9-0</t>
-  </si>
-  <si>
-    <t>8-6-0</t>
-  </si>
-  <si>
-    <t>7-7-0</t>
-  </si>
-  <si>
-    <t>6-8-0</t>
-  </si>
-  <si>
-    <t>2-12-0</t>
-  </si>
-  <si>
-    <t>12-2-0</t>
-  </si>
-  <si>
-    <t>1-13-0</t>
-  </si>
-  <si>
-    <t>4-10-0</t>
-  </si>
-  <si>
-    <t>10-4-0</t>
-  </si>
-  <si>
-    <t>11-3-0</t>
-  </si>
-  <si>
-    <t>3-11-0</t>
+    <t>12-5-0</t>
+  </si>
+  <si>
+    <t>6-11-0</t>
+  </si>
+  <si>
+    <t>11-6-0</t>
+  </si>
+  <si>
+    <t>9-8-0</t>
+  </si>
+  <si>
+    <t>7-10-0</t>
+  </si>
+  <si>
+    <t>10-7-0</t>
+  </si>
+  <si>
+    <t>8-9-0</t>
+  </si>
+  <si>
+    <t>4-13-0</t>
+  </si>
+  <si>
+    <t>15-2-0</t>
+  </si>
+  <si>
+    <t>14-3-0</t>
+  </si>
+  <si>
+    <t>1-16-0</t>
+  </si>
+  <si>
+    <t>13-3-1</t>
+  </si>
+  <si>
+    <t>2-15-0</t>
+  </si>
+  <si>
+    <t>5-12-0</t>
+  </si>
+  <si>
+    <t>3-14-0</t>
+  </si>
+  <si>
+    <t>9-7-1</t>
+  </si>
+  <si>
+    <t>13-4-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -142,12 +157,12 @@
     <t>James Breen</t>
   </si>
   <si>
+    <t>jack meehan</t>
+  </si>
+  <si>
     <t>Louis Rodriguez</t>
   </si>
   <si>
-    <t>jack meehan</t>
-  </si>
-  <si>
     <t>Jackson Jansorn</t>
   </si>
   <si>
@@ -160,28 +175,28 @@
     <t xml:space="preserve">Mike Zacierka </t>
   </si>
   <si>
+    <t>↑9</t>
+  </si>
+  <si>
     <t>↑1</t>
   </si>
   <si>
-    <t>↑2</t>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↓3</t>
   </si>
   <si>
     <t>↓4</t>
   </si>
   <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>↓6</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -224,6 +239,15 @@
   </si>
   <si>
     <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week 15</t>
+  </si>
+  <si>
+    <t>Week 16</t>
+  </si>
+  <si>
+    <t>Week 17</t>
   </si>
   <si>
     <t>Week</t>
@@ -642,25 +666,25 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -671,25 +695,25 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -700,25 +724,25 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -729,25 +753,25 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
         <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -755,19 +779,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
@@ -776,7 +800,7 @@
         <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -790,19 +814,19 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
@@ -813,28 +837,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -842,10 +866,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -860,10 +884,10 @@
         <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -881,13 +905,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -895,13 +919,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>6.125</v>
+        <v>7.5</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -912,10 +936,10 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>6.375</v>
+        <v>7.5</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -923,13 +947,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>6.75</v>
+        <v>7.875</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -937,13 +961,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>8.125</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -954,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7.125</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -968,10 +992,10 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -982,10 +1006,10 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>7.5</v>
+        <v>9.375</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -996,10 +1020,10 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>7.625</v>
+        <v>9.5</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1017,16 +1041,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1037,13 +1061,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>10.625</v>
+        <v>12.5</v>
       </c>
       <c r="D2">
-        <v>-1.375</v>
+        <v>-0.5</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1054,13 +1078,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>8.875</v>
+        <v>11.25</v>
       </c>
       <c r="D3">
-        <v>0.875</v>
+        <v>1.25</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1071,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8.125</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>-0.875</v>
+        <v>-2</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1085,16 +1109,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>7.375</v>
+        <v>8.75</v>
       </c>
       <c r="D5">
-        <v>-1.625</v>
+        <v>2.75</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1102,16 +1126,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>7.375</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1119,16 +1143,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>5.625</v>
+        <v>7.125</v>
       </c>
       <c r="D7">
-        <v>1.625</v>
+        <v>-0.875</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1136,16 +1160,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>5.5</v>
+        <v>6.625</v>
       </c>
       <c r="D8">
-        <v>-0.5</v>
+        <v>1.625</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1156,13 +1180,13 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>2.5</v>
+        <v>3.625</v>
       </c>
       <c r="D9">
-        <v>0.5</v>
+        <v>-0.375</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1180,34 +1204,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1215,31 +1239,31 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>42.44</v>
+        <v>43.71</v>
       </c>
       <c r="C2">
-        <v>32.07</v>
+        <v>32.32</v>
       </c>
       <c r="D2">
-        <v>15.74</v>
+        <v>15.46</v>
       </c>
       <c r="E2">
-        <v>6.510000000000001</v>
+        <v>6.069999999999999</v>
       </c>
       <c r="F2">
-        <v>2.56</v>
+        <v>1.96</v>
       </c>
       <c r="G2">
-        <v>0.6</v>
+        <v>0.44</v>
       </c>
       <c r="H2">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>99.92</v>
+        <v>99.95999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1247,31 +1271,31 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>38.23</v>
+        <v>38.37</v>
       </c>
       <c r="C3">
-        <v>28.31</v>
+        <v>30.11</v>
       </c>
       <c r="D3">
-        <v>17.85</v>
+        <v>17.64</v>
       </c>
       <c r="E3">
-        <v>9.700000000000001</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="F3">
-        <v>4.29</v>
+        <v>3.71</v>
       </c>
       <c r="G3">
-        <v>1.46</v>
+        <v>1.08</v>
       </c>
       <c r="H3">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>99.83999999999999</v>
+        <v>99.85999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1279,31 +1303,31 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>10.38</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>17.39</v>
+        <v>16.83</v>
       </c>
       <c r="D4">
-        <v>23.31</v>
+        <v>24.29</v>
       </c>
       <c r="E4">
-        <v>21.56</v>
+        <v>22.15</v>
       </c>
       <c r="F4">
-        <v>15.8</v>
+        <v>15.78</v>
       </c>
       <c r="G4">
-        <v>9.08</v>
+        <v>8.68</v>
       </c>
       <c r="H4">
-        <v>2.48</v>
+        <v>2.27</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>97.52</v>
+        <v>97.73000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1311,31 +1335,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.66</v>
+        <v>4.9</v>
       </c>
       <c r="C5">
-        <v>11.72</v>
+        <v>11.34</v>
       </c>
       <c r="D5">
-        <v>19.46</v>
+        <v>19.22</v>
       </c>
       <c r="E5">
-        <v>22.57</v>
+        <v>23.33</v>
       </c>
       <c r="F5">
-        <v>20.36</v>
+        <v>20.82</v>
       </c>
       <c r="G5">
-        <v>14.59</v>
+        <v>15.11</v>
       </c>
       <c r="H5">
-        <v>5.600000000000001</v>
+        <v>5.27</v>
       </c>
       <c r="I5">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="J5">
-        <v>94.36000000000001</v>
+        <v>94.72000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1343,31 +1367,31 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="C6">
-        <v>7.35</v>
+        <v>6.81</v>
       </c>
       <c r="D6">
-        <v>14.36</v>
+        <v>14.98</v>
       </c>
       <c r="E6">
-        <v>21.17</v>
+        <v>20.84</v>
       </c>
       <c r="F6">
-        <v>23.03</v>
+        <v>23.82</v>
       </c>
       <c r="G6">
-        <v>20.62</v>
+        <v>21.39</v>
       </c>
       <c r="H6">
-        <v>10.83</v>
+        <v>9.66</v>
       </c>
       <c r="I6">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="J6">
-        <v>89.03</v>
+        <v>90.24999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1375,31 +1399,31 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="C7">
-        <v>2.99</v>
+        <v>2.46</v>
       </c>
       <c r="D7">
-        <v>7.77</v>
+        <v>7.149999999999999</v>
       </c>
       <c r="E7">
-        <v>14.21</v>
+        <v>14.55</v>
       </c>
       <c r="F7">
-        <v>23.35</v>
+        <v>23.53</v>
       </c>
       <c r="G7">
-        <v>28.72</v>
+        <v>29.77</v>
       </c>
       <c r="H7">
-        <v>21.91</v>
+        <v>21.6</v>
       </c>
       <c r="I7">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="J7">
-        <v>77.79000000000001</v>
+        <v>78.06</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1407,31 +1431,31 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="C8">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="D8">
-        <v>1.51</v>
+        <v>1.26</v>
       </c>
       <c r="E8">
-        <v>4.279999999999999</v>
+        <v>4.109999999999999</v>
       </c>
       <c r="F8">
-        <v>10.61</v>
+        <v>10.38</v>
       </c>
       <c r="G8">
-        <v>24.85</v>
+        <v>23.41</v>
       </c>
       <c r="H8">
-        <v>55.43</v>
+        <v>57.70999999999999</v>
       </c>
       <c r="I8">
-        <v>3.11</v>
+        <v>2.99</v>
       </c>
       <c r="J8">
-        <v>41.46</v>
+        <v>39.3</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1454,16 +1478,16 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="H9">
-        <v>3.51</v>
+        <v>3.31</v>
       </c>
       <c r="I9">
-        <v>96.41</v>
+        <v>96.56999999999999</v>
       </c>
       <c r="J9">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
@@ -1481,19 +1505,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1504,16 +1528,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D2">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1524,16 +1548,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1541,19 +1565,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1561,19 +1585,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D5">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1584,16 +1608,16 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D6">
-        <v>-2</v>
+        <v>-16</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1604,16 +1628,16 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D7">
-        <v>-6</v>
+        <v>-18</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1624,16 +1648,16 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D8">
-        <v>-24</v>
+        <v>-22</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1644,16 +1668,16 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D9">
-        <v>-62</v>
+        <v>-70</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1663,60 +1687,69 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+        <v>73</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1762,11 +1795,20 @@
       <c r="O2">
         <v>46</v>
       </c>
-      <c r="P2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="P2">
+        <v>48</v>
+      </c>
+      <c r="Q2">
+        <v>51</v>
+      </c>
+      <c r="R2">
+        <v>60</v>
+      </c>
+      <c r="S2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1812,111 +1854,138 @@
       <c r="O3">
         <v>22</v>
       </c>
-      <c r="P3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="P3">
+        <v>33</v>
+      </c>
+      <c r="Q3">
+        <v>39</v>
+      </c>
+      <c r="R3">
+        <v>40</v>
+      </c>
+      <c r="S3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B4">
+        <v>-8</v>
+      </c>
+      <c r="C4">
+        <v>-15</v>
+      </c>
+      <c r="D4">
+        <v>-10</v>
+      </c>
+      <c r="E4">
+        <v>-14</v>
+      </c>
+      <c r="F4">
+        <v>-18</v>
+      </c>
+      <c r="G4">
+        <v>-14</v>
+      </c>
+      <c r="H4">
         <v>-4</v>
       </c>
-      <c r="C4">
+      <c r="I4">
         <v>-3</v>
       </c>
-      <c r="D4">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>-2</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <v>9</v>
-      </c>
-      <c r="J4">
-        <v>9</v>
-      </c>
-      <c r="K4">
-        <v>15</v>
-      </c>
       <c r="L4">
-        <v>9</v>
+        <v>-4</v>
       </c>
       <c r="M4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="O4">
         <v>12</v>
       </c>
-      <c r="P4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="P4">
+        <v>20</v>
+      </c>
+      <c r="Q4">
+        <v>22</v>
+      </c>
+      <c r="R4">
+        <v>15</v>
+      </c>
+      <c r="S4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="C5">
-        <v>-15</v>
+        <v>-3</v>
       </c>
       <c r="D5">
-        <v>-10</v>
+        <v>-2</v>
       </c>
       <c r="E5">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-14</v>
+        <v>4</v>
       </c>
       <c r="H5">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>-3</v>
+        <v>9</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K5">
-        <v>-2</v>
+        <v>15</v>
       </c>
       <c r="L5">
-        <v>-4</v>
+        <v>9</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N5">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="O5">
         <v>12</v>
       </c>
-      <c r="P5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="P5">
+        <v>15</v>
+      </c>
+      <c r="Q5">
+        <v>8</v>
+      </c>
+      <c r="R5">
+        <v>12</v>
+      </c>
+      <c r="S5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1962,11 +2031,20 @@
       <c r="O6">
         <v>-2</v>
       </c>
-      <c r="P6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="P6">
+        <v>-12</v>
+      </c>
+      <c r="Q6">
+        <v>-22</v>
+      </c>
+      <c r="R6">
+        <v>-16</v>
+      </c>
+      <c r="S6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2012,11 +2090,20 @@
       <c r="O7">
         <v>-6</v>
       </c>
-      <c r="P7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="P7">
+        <v>-14</v>
+      </c>
+      <c r="Q7">
+        <v>-15</v>
+      </c>
+      <c r="R7">
+        <v>-18</v>
+      </c>
+      <c r="S7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2062,11 +2149,20 @@
       <c r="O8">
         <v>-24</v>
       </c>
-      <c r="P8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="P8">
+        <v>-24</v>
+      </c>
+      <c r="Q8">
+        <v>-18</v>
+      </c>
+      <c r="R8">
+        <v>-22</v>
+      </c>
+      <c r="S8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -2112,8 +2208,17 @@
       <c r="O9">
         <v>-62</v>
       </c>
-      <c r="P9" t="s">
-        <v>53</v>
+      <c r="P9">
+        <v>-66</v>
+      </c>
+      <c r="Q9">
+        <v>-64</v>
+      </c>
+      <c r="R9">
+        <v>-70</v>
+      </c>
+      <c r="S9" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2123,7 +2228,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2131,25 +2236,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2157,22 +2262,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
       <c r="E2">
-        <v>-36</v>
+        <v>-14</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>-66</v>
       </c>
       <c r="G2">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
         <v>1</v>
@@ -2183,25 +2288,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>-16</v>
+        <v>-15</v>
       </c>
       <c r="F3">
-        <v>20</v>
+        <v>-64</v>
       </c>
       <c r="G3">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2209,25 +2314,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F4">
-        <v>24</v>
+        <v>-18</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2235,25 +2340,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>15</v>
+        <v>-36</v>
       </c>
       <c r="F5">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2261,25 +2366,77 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
       <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>-22</v>
+      </c>
+      <c r="G6">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>7</v>
       </c>
-      <c r="E6">
-        <v>-15</v>
-      </c>
-      <c r="F6">
-        <v>-3</v>
-      </c>
-      <c r="G6">
+      <c r="E7">
+        <v>-16</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
         <v>12</v>
       </c>
-      <c r="H6" t="s">
-        <v>3</v>
+      <c r="F8">
+        <v>40</v>
+      </c>
+      <c r="G8">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/EBC League 2022.xlsx
+++ b/EBC League 2022.xlsx
@@ -2791,7 +2791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2822,30 +2822,50 @@
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>Team 1 LPI</t>
+          <t>LPI 1</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
+          <t>Total Points 1</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Record 1</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
           <t>Team 2</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>Seed 2</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>Score 2</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>Team 2 LPI</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>LPI 2</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>Total Points 2</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>Record 2</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>Winner</t>
         </is>
@@ -2871,27 +2891,45 @@
       <c r="E2" t="n">
         <v>48</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="n">
+        <v>1924.04</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12-2-0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Bye</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>Seigaku FC</t>
         </is>
@@ -2917,27 +2955,45 @@
       <c r="E3" t="n">
         <v>-12</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="n">
+        <v>1760.26</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9-5-0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bye</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>Wut happened uh 🤷🏽‍♂️</t>
         </is>
@@ -2963,21 +3019,37 @@
       <c r="E4" t="n">
         <v>15</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="n">
+        <v>1822.06</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>9-5-0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Riley  Read option</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>6</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>114.72</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>-24</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="L4" t="n">
+        <v>1628.82</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>6-8-0</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t>The Hungry Dogs</t>
         </is>
@@ -3003,21 +3075,37 @@
       <c r="E5" t="n">
         <v>33</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="n">
+        <v>1919.74</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>8-6-0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Pitman MaleManipulator</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>5</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>152.86</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>20</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="L5" t="n">
+        <v>1790.5</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>6-8-0</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t xml:space="preserve">Champagne  Papi </t>
         </is>
@@ -3043,21 +3131,37 @@
       <c r="E6" t="n">
         <v>51</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="n">
+        <v>1924.04</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>12-2-0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Champagne  Papi </t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>4</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>157.44</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>39</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="L6" t="n">
+        <v>1919.74</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>8-6-0</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t xml:space="preserve">Champagne  Papi </t>
         </is>
@@ -3083,21 +3187,37 @@
       <c r="E7" t="n">
         <v>-22</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="n">
+        <v>1760.26</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>9-5-0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>The Hungry Dogs</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>3</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>101.36</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>8</v>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="L7" t="n">
+        <v>1822.06</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>9-5-0</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>The Hungry Dogs</t>
         </is>
@@ -3123,21 +3243,37 @@
       <c r="E8" t="n">
         <v>40</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="n">
+        <v>1919.74</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>8-6-0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>The Hungry Dogs</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>3</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>115.7</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>12</v>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="L8" t="n">
+        <v>1822.06</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>9-5-0</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>The Hungry Dogs</t>
         </is>
